--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_8.xlsx
@@ -518,1211 +518,1211 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_5</t>
+          <t>model_14_8_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9934155513894478</v>
+        <v>0.9927733038264815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7857491512658263</v>
+        <v>0.8031199189962546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9858709569229417</v>
+        <v>0.9810390387941501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9937684843510188</v>
+        <v>0.9861615545809486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9935279182877744</v>
+        <v>0.9862963030846997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04403023817736088</v>
+        <v>0.0483249505881941</v>
       </c>
       <c r="H2" t="n">
-        <v>1.432696412019865</v>
+        <v>1.316538008221461</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01944163334391649</v>
+        <v>0.1076039665485587</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02836572526273148</v>
+        <v>0.1263769824334236</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02390370146418121</v>
+        <v>0.1169904964489862</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3709253736799957</v>
+        <v>0.910743856528628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.209833834682019</v>
+        <v>0.2198293669831083</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003225036054148</v>
+        <v>1.00353960628907</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2187668954403514</v>
+        <v>0.2291879582451024</v>
       </c>
       <c r="P2" t="n">
-        <v>152.245757299591</v>
+        <v>152.0596145527556</v>
       </c>
       <c r="Q2" t="n">
-        <v>241.2236925149697</v>
+        <v>241.0375497681342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_4</t>
+          <t>model_14_8_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9923816093476445</v>
+        <v>0.9928711828740003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.785733116678806</v>
+        <v>0.8030975905061621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9890887026162636</v>
+        <v>0.9812901843444197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9950462138479725</v>
+        <v>0.9881984889165608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9949147155129072</v>
+        <v>0.9874692485160578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05094421337176475</v>
+        <v>0.04767043294674418</v>
       </c>
       <c r="H3" t="n">
-        <v>1.432803635377104</v>
+        <v>1.316687318937522</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01501399931220291</v>
+        <v>0.1061787087730355</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02254952806252029</v>
+        <v>0.1077750653137949</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01878176568912582</v>
+        <v>0.1069768870434152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4064237577965887</v>
+        <v>0.8021519524844132</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2257082483467646</v>
+        <v>0.2183355970673224</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003731456646052</v>
+        <v>1.003491665531102</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2353171157593716</v>
+        <v>0.2276305954514715</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9540482008198</v>
+        <v>152.0868878552859</v>
       </c>
       <c r="Q3" t="n">
-        <v>240.9319834161985</v>
+        <v>241.0648230706645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_6</t>
+          <t>model_14_8_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9942043748989459</v>
+        <v>0.9925903252168732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7856593805327854</v>
+        <v>0.8030486742686301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9825820859969334</v>
+        <v>0.9807958757207765</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9924994125450263</v>
+        <v>0.9840610755811503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.992133219083226</v>
+        <v>0.9850920311846831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03875537173714898</v>
+        <v>0.04954852939318426</v>
       </c>
       <c r="H4" t="n">
-        <v>1.433296709325067</v>
+        <v>1.317014422043138</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02396713604853646</v>
+        <v>0.1089839235522711</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0341425128398191</v>
+        <v>0.1455592091663362</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02905482206188328</v>
+        <v>0.1272715445714973</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3398400938105607</v>
+        <v>1.008870796221541</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1968638406034714</v>
+        <v>0.2225949895958673</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002838673518884</v>
+        <v>1.003629228465205</v>
       </c>
       <c r="O4" t="n">
-        <v>0.205244741862291</v>
+        <v>0.2320713191381146</v>
       </c>
       <c r="P4" t="n">
-        <v>152.5009718146312</v>
+        <v>152.0096053957923</v>
       </c>
       <c r="Q4" t="n">
-        <v>241.4789070300098</v>
+        <v>240.9875406111709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_3</t>
+          <t>model_14_8_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9910371334894279</v>
+        <v>0.992850989460886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7855715443460205</v>
+        <v>0.8029484250791297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9921065807397779</v>
+        <v>0.9815461966440627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9962983824635605</v>
+        <v>0.9901000784679934</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9962485242279523</v>
+        <v>0.988571414047554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05993472962640106</v>
+        <v>0.04780546639322206</v>
       </c>
       <c r="H5" t="n">
-        <v>1.433884070310412</v>
+        <v>1.317684788834932</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01086138404774385</v>
+        <v>0.1047258320634778</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01684968344475179</v>
+        <v>0.09040915880769741</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01385553534278539</v>
+        <v>0.09756753615834604</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4462083616548692</v>
+        <v>0.6820462448070141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2448157054324764</v>
+        <v>0.2186446120836781</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00438997543375</v>
+        <v>1.003501556182423</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2552380168511111</v>
+        <v>0.2279527658768227</v>
       </c>
       <c r="P5" t="n">
-        <v>151.6289982968939</v>
+        <v>152.0812305726649</v>
       </c>
       <c r="Q5" t="n">
-        <v>240.6069335122725</v>
+        <v>241.0591657880435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_7</t>
+          <t>model_14_8_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9948002258340487</v>
+        <v>0.9923481160048401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7854946164565695</v>
+        <v>0.8029101472884381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9793141501930669</v>
+        <v>0.980562824777745</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9912625659112279</v>
+        <v>0.9819514009601276</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9907622672174382</v>
+        <v>0.9838861942583563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03477091379047468</v>
+        <v>0.05116818350932013</v>
       </c>
       <c r="H6" t="n">
-        <v>1.434398487461392</v>
+        <v>1.31794075259754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02846383192126635</v>
+        <v>0.1103064939433929</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03977261212588891</v>
+        <v>0.1648254131688597</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03411823528481153</v>
+        <v>0.1375659535561263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3118356957932293</v>
+        <v>1.097503115859516</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1864696055406207</v>
+        <v>0.2262038538781339</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002546828162915</v>
+        <v>1.00374786154865</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1944080026937819</v>
+        <v>0.2358338202442562</v>
       </c>
       <c r="P6" t="n">
-        <v>152.7179481046094</v>
+        <v>151.9452747118582</v>
       </c>
       <c r="Q6" t="n">
-        <v>241.695883319988</v>
+        <v>240.9232099272369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_8</t>
+          <t>model_14_8_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9952445399846913</v>
+        <v>0.9920669413535537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7852785301181728</v>
+        <v>0.8027248598843749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9761310568983282</v>
+        <v>0.9803417582824371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9900741750489076</v>
+        <v>0.9798733787004558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.989436991966123</v>
+        <v>0.9827012726782793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03179978301924893</v>
+        <v>0.05304839969716288</v>
       </c>
       <c r="H7" t="n">
-        <v>1.435843457801236</v>
+        <v>1.319179770321681</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03284378408067839</v>
+        <v>0.1115610522702558</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04518214178194076</v>
+        <v>0.1838025579748266</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03901294851215924</v>
+        <v>0.1476818051225412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2865987509227573</v>
+        <v>1.177521017679071</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1783249366164164</v>
+        <v>0.2303223821020503</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002329204905457</v>
+        <v>1.003885579745198</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1859165983516853</v>
+        <v>0.2401276827411936</v>
       </c>
       <c r="P7" t="n">
-        <v>152.8965916250267</v>
+        <v>151.8731011606237</v>
       </c>
       <c r="Q7" t="n">
-        <v>241.8745268404053</v>
+        <v>240.8510363760024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_2</t>
+          <t>model_14_8_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9892998030934771</v>
+        <v>0.9926710474904594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7852131898616991</v>
+        <v>0.8026303894710746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9947468725078481</v>
+        <v>0.9818028036094592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9974768900135995</v>
+        <v>0.9917734405022258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9974666032496445</v>
+        <v>0.9895517176403579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07155226598379533</v>
+        <v>0.04900873917802086</v>
       </c>
       <c r="H8" t="n">
-        <v>1.43628038839714</v>
+        <v>1.319811494410416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007228329480932502</v>
+        <v>0.1032695806097209</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01148514241372273</v>
+        <v>0.07512749688678437</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009356735947327617</v>
+        <v>0.08919853874825262</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4903549174743971</v>
+        <v>0.5492773970511405</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2674925531370833</v>
+        <v>0.2213791751227311</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005240912770542</v>
+        <v>1.003589691025081</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2788802649100493</v>
+        <v>0.2308037449257741</v>
       </c>
       <c r="P8" t="n">
-        <v>151.2746542070938</v>
+        <v>152.0315132924045</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.2525894224725</v>
+        <v>241.0094485077831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_9</t>
+          <t>model_14_8_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9955702847928465</v>
+        <v>0.9917623771025327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7850292804816746</v>
+        <v>0.8025088311246252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9730755335316986</v>
+        <v>0.9801333453335553</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9889444240624288</v>
+        <v>0.9778566549191983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9881716050124215</v>
+        <v>0.9815533427213262</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02962152598719886</v>
+        <v>0.05508502224612939</v>
       </c>
       <c r="H9" t="n">
-        <v>1.437510191268188</v>
+        <v>1.320624355632848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03704819938635742</v>
+        <v>0.112743801379665</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05032474398386237</v>
+        <v>0.2022199060337465</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04368647293951825</v>
+        <v>0.1574818537067058</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2638632747934447</v>
+        <v>1.249733052304627</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1721090526009566</v>
+        <v>0.2347019860293675</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002169656427994</v>
+        <v>1.004034754072229</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1794360912850337</v>
+        <v>0.2446937354747265</v>
       </c>
       <c r="P9" t="n">
-        <v>153.0385079053159</v>
+        <v>151.7977548566785</v>
       </c>
       <c r="Q9" t="n">
-        <v>242.0164431206946</v>
+        <v>240.7756900720571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_10</t>
+          <t>model_14_8_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9958036724768675</v>
+        <v>0.9914463241041646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.784760763721241</v>
+        <v>0.8022742915005376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9701759424722131</v>
+        <v>0.9799381102835333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9878795142571301</v>
+        <v>0.9759219649327469</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9869752275387522</v>
+        <v>0.9804536691009667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02806086146949879</v>
+        <v>0.05719847010150729</v>
       </c>
       <c r="H10" t="n">
-        <v>1.439305764081613</v>
+        <v>1.322192723179077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04103805106409432</v>
+        <v>0.1138517655574095</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05517219052307346</v>
+        <v>0.2198880959949753</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04810512079358389</v>
+        <v>0.1668699307761924</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2433833640414396</v>
+        <v>1.314876459843634</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1675137650149945</v>
+        <v>0.2391620164271645</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002055344092963</v>
+        <v>1.004189555540817</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1746451727929804</v>
+        <v>0.2493436386000935</v>
       </c>
       <c r="P10" t="n">
-        <v>153.1467590075982</v>
+        <v>151.7224562548624</v>
       </c>
       <c r="Q10" t="n">
-        <v>242.1246942229768</v>
+        <v>240.7003914702411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_1</t>
+          <t>model_14_8_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9870662874929474</v>
+        <v>0.9922791017418171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7845923778231183</v>
+        <v>0.8020907527087195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.996766577519275</v>
+        <v>0.9820546654777912</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985142922762428</v>
+        <v>0.9930999308952068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9984821228347244</v>
+        <v>0.9903449111983819</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08648779508893044</v>
+        <v>0.05162968220393643</v>
       </c>
       <c r="H11" t="n">
-        <v>1.440431761357706</v>
+        <v>1.323420047925083</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00444920536892585</v>
+        <v>0.1018402577098619</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006762909617294426</v>
+        <v>0.06301357454829153</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005606060651167082</v>
+        <v>0.08242692750298676</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53933479867028</v>
+        <v>0.4025944258705886</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2940880736938009</v>
+        <v>0.2272216587474364</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006334879595291</v>
+        <v>1.003781664452988</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3066080118371836</v>
+        <v>0.2368949551739915</v>
       </c>
       <c r="P11" t="n">
-        <v>150.8955039444745</v>
+        <v>151.9273170707386</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.8734391598531</v>
+        <v>240.9052522861173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_11</t>
+          <t>model_14_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9959654552725696</v>
+        <v>0.9911277669854953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7844833541818301</v>
+        <v>0.8020306918419509</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9674475932516796</v>
+        <v>0.9797561425318738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9868823643194609</v>
+        <v>0.9740832855959323</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9858525043864055</v>
+        <v>0.9794097571524891</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02697901916969698</v>
+        <v>0.0593286630208694</v>
       </c>
       <c r="H12" t="n">
-        <v>1.441160802949008</v>
+        <v>1.32382167521772</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04479227312219664</v>
+        <v>0.1148844374588972</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05971119560160477</v>
+        <v>0.2366794868783338</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05225173702216515</v>
+        <v>0.1757819621686155</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2249331082238606</v>
+        <v>1.373627303383073</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1642529122107032</v>
+        <v>0.2435747585873163</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001976103539966</v>
+        <v>1.004345583517309</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1712454987339146</v>
+        <v>0.2539442403296385</v>
       </c>
       <c r="P12" t="n">
-        <v>153.225391565681</v>
+        <v>151.6493254671752</v>
       </c>
       <c r="Q12" t="n">
-        <v>242.2033267810596</v>
+        <v>240.6272606825539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_12</t>
+          <t>model_14_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9960720699748741</v>
+        <v>0.990813325088394</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7842047633608166</v>
+        <v>0.8017850187903048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9648980637035116</v>
+        <v>0.9795872182308936</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9859539232386386</v>
+        <v>0.9723491309734595</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9848054352771379</v>
+        <v>0.978426082839119</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02626608616447209</v>
+        <v>0.06143133743465752</v>
       </c>
       <c r="H13" t="n">
-        <v>1.443023741051919</v>
+        <v>1.325464492045298</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0483004384243074</v>
+        <v>0.1158430874257729</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0639374394409413</v>
+        <v>0.252516325600071</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05611893594102613</v>
+        <v>0.1841797359209528</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2083080548269226</v>
+        <v>1.426595348680831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1620681528384651</v>
+        <v>0.2478534595979195</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001923884093939</v>
+        <v>1.004499595875072</v>
       </c>
       <c r="O13" t="n">
-        <v>0.168967729632125</v>
+        <v>0.2584050945003952</v>
       </c>
       <c r="P13" t="n">
-        <v>153.278953342736</v>
+        <v>151.579670384715</v>
       </c>
       <c r="Q13" t="n">
-        <v>242.2568885581146</v>
+        <v>240.5576056000937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_13</t>
+          <t>model_14_8_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9961365786001253</v>
+        <v>0.9905078238983933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7839306703238824</v>
+        <v>0.8015424781445957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9625300285285697</v>
+        <v>0.9794311553796963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9850932756416239</v>
+        <v>0.9707238486398285</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9838339506032526</v>
+        <v>0.9775049213343984</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02583471669038233</v>
+        <v>0.06347422529889618</v>
       </c>
       <c r="H14" t="n">
-        <v>1.44485660245198</v>
+        <v>1.327086362459952</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0515588665687775</v>
+        <v>0.1167287483180339</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06785508879947938</v>
+        <v>0.2673589087592934</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05970697463616731</v>
+        <v>0.1920438285386637</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1933382059127697</v>
+        <v>1.474341874767664</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1607318160489152</v>
+        <v>0.2519409162857359</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001892288032592</v>
+        <v>1.004649229110991</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1675745022188454</v>
+        <v>0.2626665626816137</v>
       </c>
       <c r="P14" t="n">
-        <v>153.3120721668391</v>
+        <v>151.5142427125766</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.2900073822177</v>
+        <v>240.4921779279553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_14</t>
+          <t>model_14_8_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9961691641088805</v>
+        <v>0.9902145480462776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7836650228205903</v>
+        <v>0.8013067431865694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9603387842633739</v>
+        <v>0.9792873010253604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9842985893245643</v>
+        <v>0.9692084545652012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9829360366371177</v>
+        <v>0.9766465886795352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02561681724329385</v>
+        <v>0.06543536227240501</v>
       </c>
       <c r="H15" t="n">
-        <v>1.446632988529688</v>
+        <v>1.328662723209733</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05457402954468131</v>
+        <v>0.1175451256611318</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07147248382976404</v>
+        <v>0.2811979582008755</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06302329052050856</v>
+        <v>0.1993715419310036</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1798587128167187</v>
+        <v>1.517374100626801</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1600525452571556</v>
+        <v>0.2558033664211732</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001876327783406</v>
+        <v>1.004792874426313</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1668663134631962</v>
+        <v>0.2666934453156906</v>
       </c>
       <c r="P15" t="n">
-        <v>153.3290124392206</v>
+        <v>151.453384918239</v>
       </c>
       <c r="Q15" t="n">
-        <v>242.3069476545992</v>
+        <v>240.4313201336176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_0</t>
+          <t>model_14_8_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9842066752450764</v>
+        <v>0.9916097814553838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7836248152461792</v>
+        <v>0.8012635840905084</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9978383080808302</v>
+        <v>0.9822948215649963</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999317496664189</v>
+        <v>0.9939291014609944</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9991767323785873</v>
+        <v>0.9908682225855951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1056100353577478</v>
+        <v>0.05610543004125256</v>
       </c>
       <c r="H16" t="n">
-        <v>1.446901856764914</v>
+        <v>1.328951328283823</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002974498801213639</v>
+        <v>0.1004773654338061</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003106740511464232</v>
+        <v>0.05544133136246411</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003040620363337451</v>
+        <v>0.07795934044484529</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5938205779737055</v>
+        <v>0.2409524802381512</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3249769766579593</v>
+        <v>0.2368658481952444</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007735506002412</v>
+        <v>1.004109494797363</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3388119193493702</v>
+        <v>0.246949717732817</v>
       </c>
       <c r="P16" t="n">
-        <v>150.4960037608567</v>
+        <v>151.7610453579167</v>
       </c>
       <c r="Q16" t="n">
-        <v>239.4739389762354</v>
+        <v>240.7389805732954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_15</t>
+          <t>model_14_8_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9961779536268039</v>
+        <v>0.9899357457656015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7834106286240473</v>
+        <v>0.8010804681601708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9583205796069745</v>
+        <v>0.9791550981743199</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9835670758162324</v>
+        <v>0.9678019533437224</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9821093061378967</v>
+        <v>0.9758503707899113</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02555804169646754</v>
+        <v>0.06729971440705244</v>
       </c>
       <c r="H17" t="n">
-        <v>1.448334123693348</v>
+        <v>1.330175825353161</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05735108916072935</v>
+        <v>0.1182953804085864</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07480231759287287</v>
+        <v>0.2940425642803067</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06607670052418385</v>
+        <v>0.2061689723444466</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1677149323668516</v>
+        <v>1.556148897471861</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1598688265312145</v>
+        <v>0.2594218849809176</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001872022713402</v>
+        <v>1.00492943064542</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1666747734507416</v>
+        <v>0.2704660117018894</v>
       </c>
       <c r="P17" t="n">
-        <v>153.3336065367042</v>
+        <v>151.3971985718413</v>
       </c>
       <c r="Q17" t="n">
-        <v>242.3115417520828</v>
+        <v>240.37513378722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_16</t>
+          <t>model_14_8_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.996169225428413</v>
+        <v>0.9896727681149416</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7831692606862282</v>
+        <v>0.8008653487454399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9564665950154173</v>
+        <v>0.9790340462988875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9828955645971432</v>
+        <v>0.9665013290127222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9813501321604577</v>
+        <v>0.9751144881945534</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0256164071992971</v>
+        <v>0.06905824716791552</v>
       </c>
       <c r="H18" t="n">
-        <v>1.449948152204942</v>
+        <v>1.331614329870001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05990218115314128</v>
+        <v>0.1189823530685304</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07785902222533861</v>
+        <v>0.3059202697055849</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06888060024655551</v>
+        <v>0.2124513113870577</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1567804216964972</v>
+        <v>1.591083549309129</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1600512642852193</v>
+        <v>0.2627893589320456</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001876297749349</v>
+        <v>1.005058236025335</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1668649779576326</v>
+        <v>0.273976845990749</v>
       </c>
       <c r="P18" t="n">
-        <v>153.3290444531335</v>
+        <v>151.3456099372705</v>
       </c>
       <c r="Q18" t="n">
-        <v>242.3069796685122</v>
+        <v>240.3235451526492</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_17</t>
+          <t>model_14_8_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9961479488822526</v>
+        <v>0.9894263128309218</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7829419692656113</v>
+        <v>0.8006624789612391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9547681311207535</v>
+        <v>0.9789231664974887</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9822807225525482</v>
+        <v>0.9653027351786602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9806548504879806</v>
+        <v>0.9744365582622332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02575868356144189</v>
+        <v>0.07070629478697908</v>
       </c>
       <c r="H19" t="n">
-        <v>1.451468050981188</v>
+        <v>1.33297092105108</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06223927589535699</v>
+        <v>0.1196115989338164</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08065776999383892</v>
+        <v>0.3168662009373937</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07144852294459796</v>
+        <v>0.2182388999356051</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1469317461636925</v>
+        <v>1.622550858186994</v>
       </c>
       <c r="M19" t="n">
-        <v>0.160495120054916</v>
+        <v>0.2659065527341872</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001886718914815</v>
+        <v>1.005178948817508</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1673277295863534</v>
+        <v>0.2772267451865285</v>
       </c>
       <c r="P19" t="n">
-        <v>153.3179669660663</v>
+        <v>151.298441349733</v>
       </c>
       <c r="Q19" t="n">
-        <v>242.2959021814449</v>
+        <v>240.2763765651116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_18</t>
+          <t>model_14_8_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9961179178272457</v>
+        <v>0.9891965623637888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7827292713720411</v>
+        <v>0.8004723531532644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9532161286866346</v>
+        <v>0.9788219342347225</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9817186294118706</v>
+        <v>0.9642011190775218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9800193581324093</v>
+        <v>0.9738137041446224</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02595950136455309</v>
+        <v>0.07224263721860061</v>
       </c>
       <c r="H20" t="n">
-        <v>1.452890362774876</v>
+        <v>1.334242293204456</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0643748389415197</v>
+        <v>0.1201860947570007</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08321640588575585</v>
+        <v>0.3269265013863351</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07379562241363777</v>
+        <v>0.2235562980716679</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1380649215112223</v>
+        <v>1.650895001069137</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1611195250879082</v>
+        <v>0.2687799047894031</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001901428002982</v>
+        <v>1.005291479658552</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1679787168342967</v>
+        <v>0.2802224217873937</v>
       </c>
       <c r="P20" t="n">
-        <v>153.3024351903353</v>
+        <v>151.2554497283829</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.280370405714</v>
+        <v>240.2333849437615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_19</t>
+          <t>model_14_8_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9960821136037421</v>
+        <v>0.9889833621741871</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7825312908851614</v>
+        <v>0.8002951282538119</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9518004437246651</v>
+        <v>0.9787297816751205</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9812059338176652</v>
+        <v>0.9631910739300207</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9794396998331096</v>
+        <v>0.9732428412908581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02619892437198491</v>
+        <v>0.07366830786816339</v>
       </c>
       <c r="H21" t="n">
-        <v>1.454214259202257</v>
+        <v>1.335427396923141</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06632282846996827</v>
+        <v>0.1207090630196918</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08555018520813011</v>
+        <v>0.3361505474404523</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07593650683904918</v>
+        <v>0.2284298390642157</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1300812722692972</v>
+        <v>1.676420704228815</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1618608179022487</v>
+        <v>0.2714190631996275</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001918964765514</v>
+        <v>1.005395904241214</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1687515680184313</v>
+        <v>0.2829739346349524</v>
       </c>
       <c r="P21" t="n">
-        <v>153.2840738471245</v>
+        <v>151.2163651752546</v>
       </c>
       <c r="Q21" t="n">
-        <v>242.2620090625031</v>
+        <v>240.1943003906333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_20</t>
+          <t>model_14_8_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9960427633702092</v>
+        <v>0.9887862900622902</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7823478083633182</v>
+        <v>0.8001306790809455</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9505108230058823</v>
+        <v>0.9786458404053937</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9807388635120002</v>
+        <v>0.9622671323059634</v>
       </c>
       <c r="F22" t="n">
-        <v>0.978911629628308</v>
+        <v>0.9727207646491137</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02646205956481002</v>
+        <v>0.07498612998785131</v>
       </c>
       <c r="H22" t="n">
-        <v>1.455441207670681</v>
+        <v>1.336527069299317</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06809735297460395</v>
+        <v>0.1211854319907409</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08767627919796685</v>
+        <v>0.3445882693707096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07788685806898855</v>
+        <v>0.2328868849168496</v>
       </c>
       <c r="L22" t="n">
-        <v>0.122891927319424</v>
+        <v>1.699407288662935</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1626716311002322</v>
+        <v>0.2738359545199485</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001938238349285</v>
+        <v>1.005492429357246</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1695968992128676</v>
+        <v>0.2854937180224342</v>
       </c>
       <c r="P22" t="n">
-        <v>153.264086572816</v>
+        <v>151.1809042320869</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.2420217881946</v>
+        <v>240.1588394474655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_21</t>
+          <t>model_14_8_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.996001596603791</v>
+        <v>0.990581870235628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7821783077773077</v>
+        <v>0.800066974853332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9493382900925017</v>
+        <v>0.9825145571120071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9803139460222658</v>
+        <v>0.9940720378401288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9784313626781801</v>
+        <v>0.9910177067476066</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02673734192140446</v>
+        <v>0.06297907710085517</v>
       </c>
       <c r="H23" t="n">
-        <v>1.456574658869812</v>
+        <v>1.3369530597627</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06971076407833496</v>
+        <v>0.09923036027444801</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08961049447593133</v>
+        <v>0.05413599194550259</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07966065486411916</v>
+        <v>0.07668317194571149</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1164194499994373</v>
+        <v>0.3510122250513592</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1635155708836454</v>
+        <v>0.2509563250863687</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001958401663449</v>
+        <v>1.004612961517243</v>
       </c>
       <c r="O23" t="n">
-        <v>0.170476767260057</v>
+        <v>0.2616400553965047</v>
       </c>
       <c r="P23" t="n">
-        <v>153.243388233668</v>
+        <v>151.5299054345228</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.2213234490467</v>
+        <v>240.5078406499015</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9959598960926573</v>
+        <v>0.9886047007692467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.782022243956503</v>
+        <v>0.7999787040916315</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9482731886826653</v>
+        <v>0.9785695879583808</v>
       </c>
       <c r="E24" t="n">
-        <v>0.979927963622149</v>
+        <v>0.9614233816173848</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9779951039904521</v>
+        <v>0.9722441302116359</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02701619343136817</v>
+        <v>0.07620041842657606</v>
       </c>
       <c r="H24" t="n">
-        <v>1.457618258358141</v>
+        <v>1.33754332675264</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07117634890040614</v>
+        <v>0.1216181666853876</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09136747806302319</v>
+        <v>0.3522936627671303</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08127191348171466</v>
+        <v>0.2369559839205612</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1105900658864605</v>
+        <v>1.720107968563022</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1643660349079705</v>
+        <v>0.2760442327355818</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001978826403596</v>
+        <v>1.005581371051798</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1713634372986008</v>
+        <v>0.2877960072134731</v>
       </c>
       <c r="P24" t="n">
-        <v>153.2226376720853</v>
+        <v>151.1487766502844</v>
       </c>
       <c r="Q24" t="n">
-        <v>242.2005728874639</v>
+        <v>240.126711865663</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9959185836591002</v>
+        <v>0.9884377904929528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7818789820565099</v>
+        <v>0.7998386424680651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9473068799717059</v>
+        <v>0.9785002534418048</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9795774279173091</v>
+        <v>0.9606538912789102</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9775990852185261</v>
+        <v>0.9718095280317141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02729244986479059</v>
+        <v>0.07731654821270446</v>
       </c>
       <c r="H25" t="n">
-        <v>1.458576251343056</v>
+        <v>1.338479919474353</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07250599447888195</v>
+        <v>0.1220116419381086</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09296310905528279</v>
+        <v>0.3593208875776723</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08273455176708239</v>
+        <v>0.2406662472970159</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1053435050414949</v>
+        <v>1.738747398181417</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1652042670901408</v>
+        <v>0.2780585337886691</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001999061064931</v>
+        <v>1.00566312302386</v>
       </c>
       <c r="O25" t="n">
-        <v>0.172237354760146</v>
+        <v>0.2898960612325684</v>
       </c>
       <c r="P25" t="n">
-        <v>153.2022903535415</v>
+        <v>151.1196945370322</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.1802255689202</v>
+        <v>240.0976297524109</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9958783527852465</v>
+        <v>0.9882848523289568</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7817477418670401</v>
+        <v>0.7997099632053974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9464305053097749</v>
+        <v>0.978437369459176</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9792596735832415</v>
+        <v>0.9599536327149673</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9772400238595771</v>
+        <v>0.9714140826242483</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02756147390349686</v>
+        <v>0.07833924641956054</v>
       </c>
       <c r="H26" t="n">
-        <v>1.459453855094345</v>
+        <v>1.339340398296326</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07371189035988661</v>
+        <v>0.1223685102365963</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09440951995255388</v>
+        <v>0.3657158663165732</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08406069317154428</v>
+        <v>0.2440422234897053</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1006207955264278</v>
+        <v>1.755525904931492</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1660164868424123</v>
+        <v>0.2798914904379205</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002018765982736</v>
+        <v>1.005738031512348</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1730841523887983</v>
+        <v>0.2918070506411217</v>
       </c>
       <c r="P26" t="n">
-        <v>153.1826727089182</v>
+        <v>151.0934131402958</v>
       </c>
       <c r="Q26" t="n">
-        <v>242.1606079242968</v>
+        <v>240.0713483556744</v>
       </c>
     </row>
   </sheetData>
